--- a/data_dict/member eligibility data dictitonary.xlsx
+++ b/data_dict/member eligibility data dictitonary.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AshishAdhikari\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\AI\Phase II\healthcare_sql_generator\data_dict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB568D4E-7310-4E31-9BC0-585EAAC512A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE875C4-BA7C-45AA-9D1E-1BD86153E0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AD71633D-6DE9-4011-8424-5511CF23BF40}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AD71633D-6DE9-4011-8424-5511CF23BF40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="136">
   <si>
     <t>Column Name</t>
   </si>
@@ -444,18 +444,6 @@
   </si>
   <si>
     <t>Indicates disability status</t>
-  </si>
-  <si>
-    <t>Instructions:</t>
-  </si>
-  <si>
-    <t>This table can be pasted into an Excel sheet with columns: Column Name, Description, Example Value, Data Type, Allowed Values/Format.</t>
-  </si>
-  <si>
-    <t>All fields are representative of US healthcare eligibility data.</t>
-  </si>
-  <si>
-    <t>For actual files, sensitive fields like SSN must be masked or generated as demo values for privacy compliance.</t>
   </si>
 </sst>
 </file>
@@ -917,18 +905,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D09765-13CC-4780-857B-F8FF3806BD1D}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="24.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="24.1796875" style="1"/>
-    <col min="5" max="5" width="24.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="24.1796875" style="1"/>
+    <col min="1" max="4" width="24.21875" style="1"/>
+    <col min="5" max="5" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="24.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -945,7 +933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -962,7 +950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -979,7 +967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -994,7 +982,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1009,7 +997,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1026,7 +1014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -1043,7 +1031,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -1058,7 +1046,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
@@ -1073,7 +1061,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -1090,7 +1078,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
@@ -1107,7 +1095,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
@@ -1124,7 +1112,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>45</v>
       </c>
@@ -1139,7 +1127,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>48</v>
       </c>
@@ -1156,7 +1144,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>50</v>
       </c>
@@ -1173,7 +1161,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>52</v>
       </c>
@@ -1190,7 +1178,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>56</v>
       </c>
@@ -1207,7 +1195,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>59</v>
       </c>
@@ -1224,7 +1212,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>63</v>
       </c>
@@ -1241,7 +1229,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>67</v>
       </c>
@@ -1256,7 +1244,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>70</v>
       </c>
@@ -1271,7 +1259,7 @@
       </c>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>73</v>
       </c>
@@ -1286,7 +1274,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>76</v>
       </c>
@@ -1301,7 +1289,7 @@
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>78</v>
       </c>
@@ -1318,7 +1306,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>80</v>
       </c>
@@ -1335,7 +1323,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>82</v>
       </c>
@@ -1352,7 +1340,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>84</v>
       </c>
@@ -1367,7 +1355,7 @@
       </c>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>87</v>
       </c>
@@ -1382,7 +1370,7 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>90</v>
       </c>
@@ -1399,7 +1387,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>94</v>
       </c>
@@ -1416,7 +1404,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>96</v>
       </c>
@@ -1433,7 +1421,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>98</v>
       </c>
@@ -1448,7 +1436,7 @@
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>101</v>
       </c>
@@ -1465,7 +1453,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>104</v>
       </c>
@@ -1482,7 +1470,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>107</v>
       </c>
@@ -1499,7 +1487,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>111</v>
       </c>
@@ -1516,7 +1504,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>115</v>
       </c>
@@ -1533,7 +1521,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>119</v>
       </c>
@@ -1550,7 +1538,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>123</v>
       </c>
@@ -1567,7 +1555,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>127</v>
       </c>
@@ -1584,7 +1572,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>130</v>
       </c>
@@ -1601,7 +1589,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>134</v>
       </c>
@@ -1618,44 +1606,36 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="8" t="s">
-        <v>136</v>
-      </c>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="9" t="s">
-        <v>137</v>
-      </c>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="9"/>
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="9" t="s">
-        <v>138</v>
-      </c>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="9"/>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="9" t="s">
-        <v>139</v>
-      </c>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="9"/>
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
@@ -1670,15 +1650,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010071CFE3CF7D33084FBE4C747B2C789FA3" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c28ef89bbeb6f449904cc4e79f5ef4ff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b0abcbf2-9bac-4e52-8a7c-5f8273d59732" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="642b821bee0c618b7c24cdb1870f8762" ns3:_="">
     <xsd:import namespace="b0abcbf2-9bac-4e52-8a7c-5f8273d59732"/>
@@ -1828,6 +1799,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1837,14 +1817,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{335AA437-C9A2-4990-8068-5A97F0EED3AE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5593D0AD-3186-4D9C-A651-35384A265607}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1858,6 +1830,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{335AA437-C9A2-4990-8068-5A97F0EED3AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
